--- a/TAE.xlsx
+++ b/TAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladraigca\Desktop\Universidad\Semestre IX\Tecnicas de Aprendizaje Estadistico\Tarea 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37FD63F-300F-45EF-A036-675D45A10C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55057E77-DA7E-4B47-AEB3-03A0A2C77BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{B28B26F7-CA67-456D-9C53-717409B92E15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B28B26F7-CA67-456D-9C53-717409B92E15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="211">
   <si>
     <t>Nombre</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>No puso informacion de la carrera</t>
+  </si>
+  <si>
+    <t>Ingeniería Civil</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE8B-8C79-4600-AB9F-642D2BC5751B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1227,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>101</v>
